--- a/applications/us_states/Baltimore_projections.xlsx
+++ b/applications/us_states/Baltimore_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>51348</v>
+        <v>19015</v>
       </c>
       <c r="B4">
-        <v>24774</v>
+        <v>5978</v>
       </c>
       <c r="C4">
-        <v>73212</v>
+        <v>27877</v>
       </c>
       <c r="D4">
-        <v>5.76791521339871</v>
+        <v>2.136010213472173</v>
       </c>
       <c r="E4">
-        <v>2.782860705319382</v>
+        <v>0.6715281747763232</v>
       </c>
       <c r="F4">
-        <v>8.223895937589512</v>
+        <v>3.131436825557295</v>
       </c>
       <c r="G4">
-        <v>0.4778513538560043</v>
+        <v>0.3814959449871101</v>
       </c>
       <c r="H4">
-        <v>0.2277214755672378</v>
+        <v>0.1698542853965526</v>
       </c>
       <c r="I4">
-        <v>0.6133212017051677</v>
+        <v>0.5012776355941969</v>
       </c>
       <c r="J4">
-        <v>0.3093389893645251</v>
+        <v>0.1602232942234982</v>
       </c>
       <c r="K4">
-        <v>0.2330787997148259</v>
+        <v>0.1255256459519115</v>
       </c>
       <c r="L4">
-        <v>0.3434167562934641</v>
+        <v>0.1676131228833376</v>
       </c>
       <c r="M4">
-        <v>22194</v>
+        <v>28660</v>
       </c>
       <c r="N4">
-        <v>14367</v>
+        <v>4440</v>
       </c>
       <c r="O4">
-        <v>36210</v>
+        <v>60480</v>
       </c>
       <c r="P4">
-        <v>2.609005382822226</v>
+        <v>3.369228421162167</v>
       </c>
       <c r="Q4">
-        <v>1.689002860812843</v>
+        <v>0.5220421757802386</v>
       </c>
       <c r="R4">
-        <v>4.256649766242805</v>
+        <v>7.109795571874842</v>
       </c>
       <c r="S4">
-        <v>0.2574444349094653</v>
+        <v>0.4567784104491877</v>
       </c>
       <c r="T4">
-        <v>0.1523506792888891</v>
+        <v>0.1031144499023709</v>
       </c>
       <c r="U4">
-        <v>0.4549360562098771</v>
+        <v>0.8790048243873939</v>
       </c>
       <c r="V4">
-        <v>0.3381617159479553</v>
+        <v>0.2130389540112352</v>
       </c>
       <c r="W4">
-        <v>0.2561390029195977</v>
+        <v>0.1338501159295692</v>
       </c>
       <c r="X4">
-        <v>0.4019518621924683</v>
+        <v>0.284115081024206</v>
       </c>
     </row>
   </sheetData>

--- a/applications/us_states/Baltimore_projections.xlsx
+++ b/applications/us_states/Baltimore_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>19015</v>
+        <v>17937</v>
       </c>
       <c r="B4">
-        <v>5978</v>
+        <v>6221</v>
       </c>
       <c r="C4">
-        <v>27877</v>
+        <v>24395</v>
       </c>
       <c r="D4">
-        <v>2.136010213472173</v>
+        <v>2.01497092270333</v>
       </c>
       <c r="E4">
-        <v>0.6715281747763232</v>
+        <v>0.6988980596269523</v>
       </c>
       <c r="F4">
-        <v>3.131436825557295</v>
+        <v>2.740337270974067</v>
       </c>
       <c r="G4">
-        <v>0.3814959449871101</v>
+        <v>0.1597047577954136</v>
       </c>
       <c r="H4">
-        <v>0.1698542853965526</v>
+        <v>0.07231552909063334</v>
       </c>
       <c r="I4">
-        <v>0.5012776355941969</v>
+        <v>0.2257419151176936</v>
       </c>
       <c r="J4">
-        <v>0.1602232942234982</v>
+        <v>0.1686033167550052</v>
       </c>
       <c r="K4">
-        <v>0.1255256459519115</v>
+        <v>0.1341070836646953</v>
       </c>
       <c r="L4">
-        <v>0.1676131228833376</v>
+        <v>0.1706883837614652</v>
       </c>
       <c r="M4">
-        <v>28660</v>
+        <v>24556</v>
       </c>
       <c r="N4">
-        <v>4440</v>
+        <v>3909</v>
       </c>
       <c r="O4">
-        <v>60480</v>
+        <v>45140</v>
       </c>
       <c r="P4">
-        <v>3.369228421162167</v>
+        <v>2.886721705108803</v>
       </c>
       <c r="Q4">
-        <v>0.5220421757802386</v>
+        <v>0.4595669502511552</v>
       </c>
       <c r="R4">
-        <v>7.109795571874842</v>
+        <v>5.306507014119006</v>
       </c>
       <c r="S4">
-        <v>0.4567784104491877</v>
+        <v>0.2205128820314365</v>
       </c>
       <c r="T4">
-        <v>0.1031144499023709</v>
+        <v>0.04187199244265396</v>
       </c>
       <c r="U4">
-        <v>0.8790048243873939</v>
+        <v>0.3542321766684809</v>
       </c>
       <c r="V4">
-        <v>0.2130389540112352</v>
+        <v>0.2130715740377227</v>
       </c>
       <c r="W4">
-        <v>0.1338501159295692</v>
+        <v>0.1413158283363832</v>
       </c>
       <c r="X4">
-        <v>0.284115081024206</v>
+        <v>0.260245714970847</v>
       </c>
     </row>
   </sheetData>
